--- a/feature/ModelisationAppointment/ig/ValueSet-sas-valueset-appointmentparticipanttype.xlsx
+++ b/feature/ModelisationAppointment/ig/ValueSet-sas-valueset-appointmentparticipanttype.xlsx
@@ -36,7 +36,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>AppointmentParticipantTypeSAS.</t>
+    <t>AppointmentParticipantTypeSAS</t>
   </si>
   <si>
     <t>Title</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-03T16:17:34+00:00</t>
+    <t>2025-09-04T08:14:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/ValueSet-sas-valueset-appointmentparticipanttype.xlsx
+++ b/feature/ModelisationAppointment/ig/ValueSet-sas-valueset-appointmentparticipanttype.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-04T08:14:53+00:00</t>
+    <t>2025-09-04T08:29:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/ValueSet-sas-valueset-appointmentparticipanttype.xlsx
+++ b/feature/ModelisationAppointment/ig/ValueSet-sas-valueset-appointmentparticipanttype.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-04T08:29:09+00:00</t>
+    <t>2025-09-04T13:01:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/ValueSet-sas-valueset-appointmentparticipanttype.xlsx
+++ b/feature/ModelisationAppointment/ig/ValueSet-sas-valueset-appointmentparticipanttype.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-04T13:01:54+00:00</t>
+    <t>2025-09-04T13:30:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/ValueSet-sas-valueset-appointmentparticipanttype.xlsx
+++ b/feature/ModelisationAppointment/ig/ValueSet-sas-valueset-appointmentparticipanttype.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-04T13:30:13+00:00</t>
+    <t>2025-09-04T16:12:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/ValueSet-sas-valueset-appointmentparticipanttype.xlsx
+++ b/feature/ModelisationAppointment/ig/ValueSet-sas-valueset-appointmentparticipanttype.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-04T16:12:35+00:00</t>
+    <t>2025-09-08T10:20:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/ValueSet-sas-valueset-appointmentparticipanttype.xlsx
+++ b/feature/ModelisationAppointment/ig/ValueSet-sas-valueset-appointmentparticipanttype.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T10:20:18+00:00</t>
+    <t>2025-09-08T13:03:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/ValueSet-sas-valueset-appointmentparticipanttype.xlsx
+++ b/feature/ModelisationAppointment/ig/ValueSet-sas-valueset-appointmentparticipanttype.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T13:03:11+00:00</t>
+    <t>2025-09-08T13:31:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/ValueSet-sas-valueset-appointmentparticipanttype.xlsx
+++ b/feature/ModelisationAppointment/ig/ValueSet-sas-valueset-appointmentparticipanttype.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T13:31:50+00:00</t>
+    <t>2025-09-09T08:15:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
